--- a/Project Files/Forms System Final/templates/jh_sf9.xlsx
+++ b/Project Files/Forms System Final/templates/jh_sf9.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE9CE1C8-0DDD-45FA-8FF2-01E4AACB6038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F3695-F6EF-488C-B853-E4C1E4549C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1 Pupil (0)" sheetId="2" r:id="rId1"/>
+    <sheet name="Back (1)" sheetId="3" r:id="rId2"/>
+    <sheet name="Original" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -82,12 +84,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>MAPEH</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <t>REPORT ON ATTENDANCE</t>
   </si>
   <si>
@@ -298,47 +294,26 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Filipino 7</t>
-  </si>
-  <si>
-    <t>English 7</t>
-  </si>
-  <si>
-    <t>Mathematics 7</t>
-  </si>
-  <si>
-    <t>Science 7</t>
-  </si>
-  <si>
-    <t>Araling Panlipunan 7</t>
-  </si>
-  <si>
-    <t>Edukasyon sa Pagpapakatao 7</t>
-  </si>
-  <si>
-    <t>Technology and Livelihood Education 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Music 7</t>
-  </si>
-  <si>
-    <t>Arts 7</t>
-  </si>
-  <si>
-    <t>Physical Education 7</t>
-  </si>
-  <si>
-    <t>Health 7</t>
+    <t>GENERAL AVERAGE</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Has advanced unit in:</t>
+  </si>
+  <si>
+    <t>Lacks Units in:</t>
+  </si>
+  <si>
+    <t>To be classified as:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +367,18 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF231E20"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF231E20"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -530,32 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF231E20"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF231E20"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF231E20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF231E20"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF231E20"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF231E20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF231E20"/>
       </left>
@@ -622,6 +583,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF231E20"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF231E20"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF231E20"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF231E20"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF231E20"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF231E20"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231E20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231E20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF231E20"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231E20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -629,7 +679,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,132 +720,283 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="mahstyle" xfId="1"/>
+    <cellStyle name="mahstyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,6 +1013,159 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66347</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>105587</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="G:\ \CBNHS LOGO.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16157460-C750-4B02-9F7E-CF579A594C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:grayscl/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3762047" y="21223"/>
+          <a:ext cx="534540" cy="561136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65690</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>187817</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="D:\UNIT MEET 2016\Seal_of_the_Department_of_Education_of_the_Philippines.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D4FC3A-5BF3-4190-BE73-51F86CF94E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:grayscl/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="65690" y="6569"/>
+          <a:ext cx="560277" cy="565293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1398,11 +1752,3453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE9844-D261-4D3E-9DFB-4D9C920A568E}">
+  <dimension ref="A1:AL47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="18" width="3.7109375" customWidth="1"/>
+    <col min="21" max="38" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="96"/>
+      <c r="U1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+    </row>
+    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="97"/>
+      <c r="U2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+    </row>
+    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="97"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="34"/>
+    </row>
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="97"/>
+      <c r="U4" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+    </row>
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="98"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+    </row>
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="99"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+    </row>
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="99"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+    </row>
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="99"/>
+      <c r="U8" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+    </row>
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="99"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+    </row>
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="99"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+    </row>
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="99"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+    </row>
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="99"/>
+      <c r="U12" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="77"/>
+    </row>
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="99"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="79"/>
+    </row>
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="99"/>
+      <c r="U14" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="65"/>
+    </row>
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="99"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="67"/>
+    </row>
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="99"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="65"/>
+    </row>
+    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="99"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="67"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="99"/>
+      <c r="U18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+    </row>
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="99"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="98"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="99"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25">
+        <v>2</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25">
+        <v>3</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25">
+        <v>4</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="99"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="91"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="99"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="99"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="91"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="91"/>
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="99"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="99"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="91"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="91"/>
+      <c r="AH26" s="91"/>
+      <c r="AI26" s="91"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="99"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="99"/>
+      <c r="U28" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+    </row>
+    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="99"/>
+      <c r="U29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="91"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="91"/>
+      <c r="AH29" s="91"/>
+      <c r="AI29" s="91"/>
+      <c r="AJ29" s="91"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="91"/>
+    </row>
+    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="99"/>
+      <c r="U30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="99"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="99"/>
+      <c r="U32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="99"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="93"/>
+      <c r="AJ33" s="93"/>
+      <c r="AK33" s="93"/>
+      <c r="AL33" s="93"/>
+    </row>
+    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="99"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="89"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="89"/>
+      <c r="AF34" s="89"/>
+      <c r="AG34" s="89"/>
+      <c r="AH34" s="89"/>
+      <c r="AI34" s="89"/>
+      <c r="AJ34" s="89"/>
+      <c r="AK34" s="89"/>
+      <c r="AL34" s="89"/>
+    </row>
+    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="99"/>
+      <c r="U35" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="92"/>
+      <c r="AL35" s="92"/>
+    </row>
+    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="99"/>
+      <c r="U36" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+    </row>
+    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="99"/>
+      <c r="U37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="90"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="90"/>
+      <c r="AK37" s="90"/>
+      <c r="AL37" s="90"/>
+    </row>
+    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" s="52"/>
+      <c r="S38" s="99"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="99"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="89"/>
+      <c r="AF39" s="89"/>
+      <c r="AG39" s="89"/>
+      <c r="AH39" s="89"/>
+      <c r="AI39" s="89"/>
+      <c r="AJ39" s="89"/>
+      <c r="AK39" s="89"/>
+      <c r="AL39" s="89"/>
+    </row>
+    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="99"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+    </row>
+    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="99"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="88"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="88"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="88"/>
+      <c r="AH41" s="88"/>
+      <c r="AI41" s="88"/>
+      <c r="AJ41" s="88"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="88"/>
+    </row>
+    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="99"/>
+      <c r="U42" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG42" s="95"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+    </row>
+    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="99"/>
+      <c r="U43" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="57"/>
+      <c r="AL43" s="57"/>
+    </row>
+    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="99"/>
+      <c r="U44" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG44" s="94"/>
+      <c r="AH44" s="94"/>
+      <c r="AI44" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ44" s="94"/>
+      <c r="AK44" s="94"/>
+      <c r="AL44" s="94"/>
+    </row>
+    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="99"/>
+      <c r="U45" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="V45" s="102"/>
+      <c r="W45" s="102"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD45" s="94"/>
+      <c r="AE45" s="94"/>
+      <c r="AF45" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG45" s="94"/>
+      <c r="AH45" s="94"/>
+      <c r="AI45" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ45" s="94"/>
+      <c r="AK45" s="94"/>
+      <c r="AL45" s="94"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="S46" s="96"/>
+      <c r="U46" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA46" s="94"/>
+      <c r="AB46" s="94"/>
+      <c r="AC46" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="94"/>
+      <c r="AF46" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG46" s="94"/>
+      <c r="AH46" s="94"/>
+      <c r="AI46" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ46" s="94"/>
+      <c r="AK46" s="94"/>
+      <c r="AL46" s="94"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="S47" s="96"/>
+      <c r="U47" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="V47" s="102"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA47" s="94"/>
+      <c r="AB47" s="94"/>
+      <c r="AC47" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD47" s="94"/>
+      <c r="AE47" s="94"/>
+      <c r="AF47" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG47" s="94"/>
+      <c r="AH47" s="94"/>
+      <c r="AI47" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ47" s="94"/>
+      <c r="AK47" s="94"/>
+      <c r="AL47" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="235">
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F45:P45"/>
+    <mergeCell ref="F44:P44"/>
+    <mergeCell ref="F43:P43"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AL47"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AL45"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AL46"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AL44"/>
+    <mergeCell ref="U35:AB35"/>
+    <mergeCell ref="AE35:AL35"/>
+    <mergeCell ref="U36:AL36"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AH37:AL37"/>
+    <mergeCell ref="AE39:AL39"/>
+    <mergeCell ref="AE40:AL40"/>
+    <mergeCell ref="U41:AL41"/>
+    <mergeCell ref="U42:AE42"/>
+    <mergeCell ref="AF42:AL42"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AL43"/>
+    <mergeCell ref="AE12:AF13"/>
+    <mergeCell ref="AG12:AH13"/>
+    <mergeCell ref="AI12:AJ13"/>
+    <mergeCell ref="AK12:AL13"/>
+    <mergeCell ref="U14:X17"/>
+    <mergeCell ref="Y14:AD15"/>
+    <mergeCell ref="AE14:AF15"/>
+    <mergeCell ref="AG14:AH15"/>
+    <mergeCell ref="AI14:AJ15"/>
+    <mergeCell ref="AK14:AL15"/>
+    <mergeCell ref="Y16:AD17"/>
+    <mergeCell ref="AE16:AF17"/>
+    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="AI16:AJ17"/>
+    <mergeCell ref="AK16:AL17"/>
+    <mergeCell ref="U1:AL1"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="Y2:AD3"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="U4:X7"/>
+    <mergeCell ref="Y4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="AG4:AH5"/>
+    <mergeCell ref="AI4:AJ5"/>
+    <mergeCell ref="AK4:AL5"/>
+    <mergeCell ref="Y6:AD7"/>
+    <mergeCell ref="AE6:AF7"/>
+    <mergeCell ref="AG6:AH7"/>
+    <mergeCell ref="AI6:AJ7"/>
+    <mergeCell ref="AK6:AL7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="U8:X11"/>
+    <mergeCell ref="Y8:AD9"/>
+    <mergeCell ref="AE8:AF9"/>
+    <mergeCell ref="AG8:AH9"/>
+    <mergeCell ref="AI8:AJ9"/>
+    <mergeCell ref="AK8:AL9"/>
+    <mergeCell ref="Y10:AD11"/>
+    <mergeCell ref="AE10:AF11"/>
+    <mergeCell ref="AG10:AH11"/>
+    <mergeCell ref="AI10:AJ11"/>
+    <mergeCell ref="AK10:AL11"/>
+    <mergeCell ref="U12:X13"/>
+    <mergeCell ref="Y12:AD13"/>
+    <mergeCell ref="U18:AL18"/>
+    <mergeCell ref="AA20:AI20"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AA24:AI24"/>
+    <mergeCell ref="AA26:AI26"/>
+    <mergeCell ref="U28:AL28"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AE29:AL29"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="U34:AB34"/>
+    <mergeCell ref="AE34:AL34"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="P21:R22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:R7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00CC6B7-B941-49C1-8B3E-62C72854E53D}">
+  <dimension ref="A1:R47"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="18" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34">
+        <v>1</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34">
+        <v>2</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34">
+        <v>3</v>
+      </c>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34">
+        <v>4</v>
+      </c>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="65"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="67"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="65"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="67"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+    </row>
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+    </row>
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" s="20"/>
+      <c r="O43" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A41:R41"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G24:O24"/>
+    <mergeCell ref="G26:O26"/>
+    <mergeCell ref="A14:D17"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="E16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="A8:D11"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="E10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="A4:D7"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="E6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="E2:J3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,378 +5211,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="44" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="41" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="41" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1800,616 +5596,586 @@
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35" t="s">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35" t="s">
+      <c r="O20" s="25"/>
+      <c r="P20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>1</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25">
         <v>2</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25">
         <v>3</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25">
         <v>4</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="25">
+        <v>80</v>
+      </c>
+      <c r="O34" s="25"/>
+      <c r="P34" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
+      <c r="B36" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="14" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="J37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="K37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="L37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="M37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="N37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="O37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="P37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="Q37" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="40"/>
+      <c r="R37" s="52"/>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
+      <c r="B38" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48"/>
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
+      <c r="B39" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="48"/>
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="31"/>
+      <c r="B40" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
       <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
       <c r="S42" s="4"/>
     </row>
     <row r="43" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,251 +6200,251 @@
       <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34">
+        <v>1</v>
+      </c>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34">
+        <v>2</v>
+      </c>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34">
+        <v>3</v>
+      </c>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34">
+        <v>4</v>
+      </c>
+      <c r="R46" s="34"/>
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52" t="s">
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="8"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52">
-        <v>1</v>
-      </c>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52">
-        <v>2</v>
-      </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52">
-        <v>3</v>
-      </c>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52">
-        <v>4</v>
-      </c>
-      <c r="R46" s="52"/>
-      <c r="S46" s="8"/>
-    </row>
-    <row r="47" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54" t="s">
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="8"/>
-    </row>
-    <row r="48" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54" t="s">
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="8"/>
-    </row>
-    <row r="49" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54" t="s">
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="8"/>
+    </row>
+    <row r="51" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="8"/>
-    </row>
-    <row r="50" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="8"/>
-    </row>
-    <row r="51" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="8"/>
+    </row>
+    <row r="52" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="54" t="s">
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="8"/>
-    </row>
-    <row r="52" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="8"/>
+    </row>
+    <row r="53" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="8"/>
-    </row>
-    <row r="53" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -2703,26 +6469,26 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
+      <c r="A55" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -2751,19 +6517,19 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -2795,19 +6561,19 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -2839,19 +6605,19 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -2883,19 +6649,19 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -2923,56 +6689,56 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
+      <c r="A65" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
       <c r="S65" s="8"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="3"/>
       <c r="I66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J66" s="5"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
       <c r="S66" s="8"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2981,8 +6747,8 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -3016,7 +6782,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3069,50 +6835,50 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="20" t="s">
+      <c r="K72" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
+      <c r="A73" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -3147,51 +6913,51 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
+      <c r="A75" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
       <c r="K76" s="3"/>
       <c r="L76" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M76" s="3"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="49"/>
       <c r="S76" s="8"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -3226,14 +6992,14 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
+      <c r="R78" s="68"/>
       <c r="S78" s="8"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -3247,16 +7013,16 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="20" t="s">
+      <c r="K79" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -3282,7 +7048,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3295,25 +7061,25 @@
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
-      <c r="M81" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
+      <c r="M81" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -3325,11 +7091,11 @@
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N82" s="11"/>
       <c r="O82" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
@@ -3338,7 +7104,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3347,20 +7113,20 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="3"/>
       <c r="K83" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L83" s="12"/>
       <c r="M83" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
@@ -3369,7 +7135,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3378,20 +7144,20 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="3"/>
       <c r="K84" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L84" s="12"/>
       <c r="M84" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
@@ -3400,7 +7166,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3409,20 +7175,20 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="3"/>
       <c r="K85" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L85" s="12"/>
       <c r="M85" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N85" s="3"/>
       <c r="O85" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
@@ -3431,7 +7197,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3440,20 +7206,20 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="3"/>
       <c r="K86" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L86" s="12"/>
       <c r="M86" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
@@ -3462,7 +7228,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -3471,12 +7237,12 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I87" s="12"/>
       <c r="J87" s="3"/>
       <c r="K87" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
@@ -3488,10 +7254,7 @@
       <c r="S87" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="203">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:R13"/>
     <mergeCell ref="A1:R1"/>
@@ -3503,11 +7266,15 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:R21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:M8"/>
@@ -3517,22 +7284,22 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="K16:R16"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="P20:R21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:R23"/>
     <mergeCell ref="P24:R24"/>
     <mergeCell ref="A25:E25"/>
@@ -3543,16 +7310,11 @@
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:R25"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="F27:G27"/>
@@ -3563,14 +7325,10 @@
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
     <mergeCell ref="P28:R28"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:G29"/>
@@ -3580,15 +7338,15 @@
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="P29:R29"/>
     <mergeCell ref="P30:R30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="L32:M32"/>
@@ -3605,7 +7363,14 @@
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="P33:R33"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:R34"/>
     <mergeCell ref="B36:R36"/>
@@ -3638,6 +7403,13 @@
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="E49:J49"/>
     <mergeCell ref="K49:L49"/>
@@ -3649,20 +7421,6 @@
     <mergeCell ref="M50:N50"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="A55:R55"/>
-    <mergeCell ref="G57:O57"/>
     <mergeCell ref="G59:O59"/>
     <mergeCell ref="G61:O61"/>
     <mergeCell ref="G63:O63"/>
@@ -3671,6 +7429,23 @@
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="O52:P52"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="M81:S81"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A75:R75"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:M34"/>
     <mergeCell ref="N76:R76"/>
     <mergeCell ref="K78:R78"/>
     <mergeCell ref="K79:R79"/>
@@ -3681,16 +7456,8 @@
     <mergeCell ref="K71:R71"/>
     <mergeCell ref="A72:H72"/>
     <mergeCell ref="K72:R72"/>
-    <mergeCell ref="M81:S81"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A75:R75"/>
-    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="A55:R55"/>
+    <mergeCell ref="G57:O57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Files/Forms System Final/templates/jh_sf9.xlsx
+++ b/Project Files/Forms System Final/templates/jh_sf9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5398EE2-ADB8-4F01-8E2A-26351AAEBCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A0FE05-531B-44F3-A0CB-DC6C71A7A534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -657,6 +657,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF231E20"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF231E20"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231E20"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -664,7 +677,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,263 +730,425 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1734,1004 +1909,1009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE9844-D261-4D3E-9DFB-4D9C920A568E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:R34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="18" width="3.7109375" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="20" customWidth="1"/>
+    <col min="7" max="18" width="3.7109375" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="140"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="50" t="s">
+      <c r="K8" s="60"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="32" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="32" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="30" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33" t="s">
+      <c r="O21" s="41"/>
+      <c r="P21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41">
         <v>1</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41">
         <v>2</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41">
         <v>3</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33">
+      <c r="K22" s="41"/>
+      <c r="L22" s="41">
         <v>4</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="53" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="47"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="16" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="16" t="s">
+      <c r="M38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="16" t="s">
+      <c r="N38" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O38" s="16" t="s">
+      <c r="O38" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="P38" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="43" t="s">
+      <c r="Q38" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="R38" s="44"/>
+      <c r="R38" s="52"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="46"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="54"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="46"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="54"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="50"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="142">
@@ -2878,14 +3058,17 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:R9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00CC6B7-B941-49C1-8B3E-62C72854E53D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -2898,424 +3081,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71">
         <v>1</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71">
         <v>2</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37">
+      <c r="N3" s="71"/>
+      <c r="O3" s="71">
         <v>3</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71">
         <v>4</v>
       </c>
-      <c r="R3" s="37"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="59" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="59" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="60" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="68" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="59" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="79"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="81"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="59" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="79"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="81"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -3326,15 +3509,15 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -3368,15 +3551,15 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -3410,15 +3593,15 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -3452,15 +3635,15 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -3486,26 +3669,26 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -3515,21 +3698,21 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="3"/>
       <c r="I29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3542,8 +3725,8 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -3606,80 +3789,80 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="86" t="s">
+      <c r="K35" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -3687,23 +3870,23 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
       <c r="K37" s="3"/>
       <c r="L37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="M37" s="3"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
@@ -3736,14 +3919,14 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -3756,210 +3939,210 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="98"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87" t="s">
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="85" t="s">
+      <c r="F43" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85" t="s">
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85" t="s">
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85" t="s">
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83" t="s">
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83" t="s">
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83" t="s">
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83" t="s">
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83" t="s">
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83" t="s">
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83" t="s">
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83" t="s">
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83" t="s">
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83" t="s">
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83" t="s">
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83" t="s">
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="93">
@@ -4057,7 +4240,8 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4079,378 +4263,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="50" t="s">
+      <c r="B7" s="132"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="50" t="s">
+      <c r="K7" s="137"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="32" t="s">
+      <c r="F8" s="133"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -4464,437 +4648,437 @@
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33" t="s">
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33" t="s">
+      <c r="O20" s="123"/>
+      <c r="P20" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33">
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123">
         <v>1</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33">
+      <c r="G21" s="123"/>
+      <c r="H21" s="123">
         <v>2</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33">
+      <c r="I21" s="123"/>
+      <c r="J21" s="123">
         <v>3</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33">
+      <c r="K21" s="123"/>
+      <c r="L21" s="123">
         <v>4</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="53" t="s">
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="33">
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="123">
         <v>80</v>
       </c>
-      <c r="O34" s="33"/>
-      <c r="P34" s="98" t="s">
+      <c r="O34" s="123"/>
+      <c r="P34" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="99"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="125"/>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="96"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
       <c r="G37" s="16" t="s">
         <v>20</v>
       </c>
@@ -4925,21 +5109,21 @@
       <c r="P37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="43" t="s">
+      <c r="Q37" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="44"/>
+      <c r="R37" s="128"/>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="96"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -4950,19 +5134,19 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="46"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="121"/>
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -4973,19 +5157,19 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="15"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="46"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="121"/>
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -4996,8 +5180,8 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
       <c r="P40" s="15"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="46"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="121"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -5008,19 +5192,19 @@
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
       <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -5031,19 +5215,19 @@
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
       <c r="S42" s="4"/>
     </row>
     <row r="43" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,251 +5252,251 @@
       <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
       <c r="S44" s="4"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37" t="s">
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37" t="s">
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71">
         <v>1</v>
       </c>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37">
+      <c r="L46" s="71"/>
+      <c r="M46" s="71">
         <v>2</v>
       </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37">
+      <c r="N46" s="71"/>
+      <c r="O46" s="71">
         <v>3</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37">
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71">
         <v>4</v>
       </c>
-      <c r="R46" s="37"/>
+      <c r="R46" s="71"/>
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="93" t="s">
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="58"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="93" t="s">
+      <c r="A48" s="115"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93" t="s">
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="93" t="s">
+      <c r="A50" s="115"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="93" t="s">
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="93" t="s">
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="58"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93" t="s">
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -5337,26 +5521,26 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -5389,15 +5573,15 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="114"/>
+      <c r="L57" s="114"/>
+      <c r="M57" s="114"/>
+      <c r="N57" s="114"/>
+      <c r="O57" s="114"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -5433,15 +5617,15 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="91"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -5477,15 +5661,15 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
-      <c r="M61" s="91"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="91"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="114"/>
+      <c r="O61" s="114"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -5521,15 +5705,15 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="91"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="91"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="114"/>
+      <c r="O63" s="114"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -5557,26 +5741,26 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
       <c r="S65" s="8"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5587,21 +5771,21 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
       <c r="H66" s="3"/>
       <c r="I66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J66" s="5"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="91"/>
-      <c r="P66" s="91"/>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="91"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
       <c r="S66" s="8"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5615,8 +5799,8 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -5703,50 +5887,50 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="90"/>
-      <c r="M71" s="90"/>
-      <c r="N71" s="90"/>
-      <c r="O71" s="90"/>
-      <c r="P71" s="90"/>
-      <c r="Q71" s="90"/>
-      <c r="R71" s="90"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
+      <c r="O71" s="113"/>
+      <c r="P71" s="113"/>
+      <c r="Q71" s="113"/>
+      <c r="R71" s="113"/>
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="113"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="113"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="30" t="s">
+      <c r="K72" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="98"/>
+      <c r="Q72" s="98"/>
+      <c r="R72" s="98"/>
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="98"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -5781,26 +5965,26 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="70"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="70"/>
+      <c r="R75" s="70"/>
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -5809,23 +5993,23 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="89"/>
+      <c r="D76" s="107"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="107"/>
       <c r="K76" s="3"/>
       <c r="L76" s="5" t="s">
         <v>62</v>
       </c>
       <c r="M76" s="3"/>
-      <c r="N76" s="89"/>
-      <c r="O76" s="89"/>
-      <c r="P76" s="89"/>
-      <c r="Q76" s="89"/>
-      <c r="R76" s="89"/>
+      <c r="N76" s="107"/>
+      <c r="O76" s="107"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
+      <c r="R76" s="107"/>
       <c r="S76" s="8"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -5860,14 +6044,14 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="90"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="90"/>
-      <c r="R78" s="90"/>
+      <c r="K78" s="113"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="113"/>
+      <c r="N78" s="113"/>
+      <c r="O78" s="113"/>
+      <c r="P78" s="113"/>
+      <c r="Q78" s="113"/>
+      <c r="R78" s="113"/>
       <c r="S78" s="8"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -5881,16 +6065,16 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="30" t="s">
+      <c r="K79" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
+      <c r="L79" s="98"/>
+      <c r="M79" s="98"/>
+      <c r="N79" s="98"/>
+      <c r="O79" s="98"/>
+      <c r="P79" s="98"/>
+      <c r="Q79" s="98"/>
+      <c r="R79" s="98"/>
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -5929,15 +6113,15 @@
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
-      <c r="M81" s="85" t="s">
+      <c r="M81" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="N81" s="85"/>
-      <c r="O81" s="85"/>
-      <c r="P81" s="85"/>
-      <c r="Q81" s="85"/>
-      <c r="R81" s="85"/>
-      <c r="S81" s="85"/>
+      <c r="N81" s="100"/>
+      <c r="O81" s="100"/>
+      <c r="P81" s="100"/>
+      <c r="Q81" s="100"/>
+      <c r="R81" s="100"/>
+      <c r="S81" s="100"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
